--- a/Assets/ArtRes/Excel/PlayerInfo.xlsx
+++ b/Assets/ArtRes/Excel/PlayerInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Unity2\RogueLike\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D71C4-F979-4DCC-AA2E-793CFDBC30AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B51E81A-F973-4646-BF5C-0D6B17695CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5750" yWindow="2880" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-870" yWindow="3850" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>Player/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UISprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Santa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,15 +412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +442,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -439,8 +465,11 @@
       <c r="F2" s="1">
         <v>5</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -459,8 +488,11 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -479,8 +511,11 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -498,6 +533,9 @@
       </c>
       <c r="F5" s="1">
         <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ArtRes/Excel/PlayerInfo.xlsx
+++ b/Assets/ArtRes/Excel/PlayerInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Unity2\RogueLike\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B51E81A-F973-4646-BF5C-0D6B17695CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9A45A-C965-43E2-9558-09F3B1244BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-870" yWindow="3850" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="3790" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>0.5</v>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
